--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="67">
   <si>
     <t>Doi</t>
   </si>
@@ -271,6 +271,36 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,   Xiaorong%Hu%NULL%1,   Wenlin%Cheng%NULL%0,   Lei%Yu%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,   Qiang%Liu%liuqiang@irm-cams.ac.cn%0,   Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,   Kun%Yang%NULL%8,   Kun%Yang%NULL%0,   Wenxia%Wang%NULL%8,   Wenxia%Wang%NULL%0,   Lingyu%Jiang%NULL%8,   Lingyu%Jiang%NULL%0,   Jianxin%Song%songsingsjx@sina.com%8,   Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%6,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,  Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%3,  Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,  Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,  Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,  Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -584,6 +614,9 @@
       <c r="H1" t="s">
         <v>22</v>
       </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -599,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -609,6 +642,9 @@
       </c>
       <c r="H2" t="s">
         <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -636,6 +672,9 @@
       <c r="H3" t="s">
         <v>29</v>
       </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -651,7 +690,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -661,6 +700,9 @@
       </c>
       <c r="H4" t="s">
         <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -688,6 +730,9 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -703,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -713,6 +758,9 @@
       </c>
       <c r="H6" t="s">
         <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -729,16 +777,19 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -755,16 +806,19 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -792,6 +846,9 @@
       <c r="H9" t="s">
         <v>29</v>
       </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -807,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>41</v>
@@ -817,6 +874,9 @@
       </c>
       <c r="H10" t="s">
         <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -833,7 +893,7 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -843,6 +903,9 @@
       </c>
       <c r="H11" t="s">
         <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D8626-967B-4A6F-8E7C-92891622626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="83">
   <si>
     <t>Doi</t>
   </si>
@@ -88,9 +95,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0, Xiaorong%Hu%NULL%1, Wenlin%Cheng%NULL%1, Lei%Yu%NULL%1, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1, Qiang%Liu%liuqiang@irm-cams.ac.cn%2, Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
   </si>
   <si>
     <t>PMC7079866</t>
@@ -138,16 +142,10 @@
 </t>
   </si>
   <si>
-    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%1, Lili%Ren%NULL%0, Jianping%Zhao%NULL%1, Yi%Hu%NULL%1, Li%Zhang%NULL%1, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%1, Ting%Yu%NULL%0, Jiaan%Xia%NULL%1, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%1, Xuelei%Xie%NULL%1, Wen%Yin%NULL%1, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%1, Hong%Gao%NULL%1, Li%Guo%NULL%1, Jungang%Xie%NULL%1, Guangfa%Wang%NULL%1, Rongmeng%Jiang%NULL%1, Zhancheng%Gao%NULL%1, Qi%Jin%NULL%1, Jianwei%Wang%wangjw28@163.com%1, Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
     <t>PMC7159299</t>
   </si>
   <si>
     <t>Clinical predictors of mortality due to COVID-19 based on an analysis of data of 150 patients from Wuhan, China</t>
-  </si>
-  <si>
-    <t>[Qiurong%Ruan%NULL%0, Kun%Yang%NULL%2, Kun%Yang%NULL%0, Wenxia%Wang%NULL%2, Wenxia%Wang%NULL%0, Lingyu%Jiang%NULL%2, Lingyu%Jiang%NULL%0, Jianxin%Song%songsingsjx@sina.com%2, Jianxin%Song%songsingsjx@sina.com%0]</t>
   </si>
   <si>
     <t>PMC7080116</t>
@@ -185,9 +183,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%1, Jia'an%Xia%NULL%1, Hong%Liu%NULL%1, Yongran%Wu%NULL%0, Lu%Zhang%NULL%1, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%1, Shangwen%Pan%NULL%1, Xiaojing%Zou%NULL%1, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7102538</t>
   </si>
   <si>
@@ -214,19 +209,7 @@
 </t>
   </si>
   <si>
-    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7270627</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,  Xiaorong%Hu%NULL%1,  Wenlin%Cheng%NULL%0,  Lei%Yu%NULL%0,  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,  Qiang%Liu%liuqiang@irm-cams.ac.cn%0,  Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,  Yeming%Wang%NULL%0,  Xingwang%Li%NULL%0,  Lili%Ren%NULL%0,  Jianping%Zhao%NULL%0,  Yi%Hu%NULL%0,  Li%Zhang%NULL%0,  Guohui%Fan%NULL%0,  Jiuyang%Xu%NULL%0,  Xiaoying%Gu%NULL%0,  Zhenshun%Cheng%NULL%0,  Ting%Yu%NULL%0,  Jiaan%Xia%NULL%0,  Yuan%Wei%NULL%0,  Wenjuan%Wu%NULL%0,  Xuelei%Xie%NULL%0,  Wen%Yin%NULL%0,  Hui%Li%NULL%0,  Min%Liu%NULL%0,  Yan%Xiao%NULL%0,  Hong%Gao%NULL%0,  Li%Guo%NULL%0,  Jungang%Xie%NULL%0,  Guangfa%Wang%NULL%0,  Rongmeng%Jiang%NULL%0,  Zhancheng%Gao%NULL%0,  Qi%Jin%NULL%0,  Jianwei%Wang%wangjw28@163.com%0,  Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Qiurong%Ruan%NULL%0,  Kun%Yang%NULL%9,  Kun%Yang%NULL%0,  Wenxia%Wang%NULL%8,  Wenxia%Wang%NULL%0,  Lingyu%Jiang%NULL%8,  Lingyu%Jiang%NULL%0,  Jianxin%Song%songsingsjx@sina.com%8,  Jianxin%Song%songsingsjx@sina.com%0]</t>
   </si>
   <si>
     <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
@@ -255,83 +238,158 @@
  Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
   </si>
   <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4, Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+    <t>Propuesta de adecuaci\u00f3n  de los protocolos de actuaci\u00f3n en cardiolog\u00eda intervencionista durante la COVID-19</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,    Xiaorong%Hu%NULL%1,    Wenlin%Cheng%NULL%5,    Lei%Yu%NULL%5,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%5,    Qiang%Liu%liuqiang@irm-cams.ac.cn%6,    Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%0,    Lili%Ren%NULL%0,    Jianping%Zhao%NULL%0,    Yi%Hu%NULL%0,    Li%Zhang%NULL%0,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%0,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%0,    Xuelei%Xie%NULL%0,    Wen%Yin%NULL%0,    Hui%Li%NULL%0,    Min%Liu%NULL%0,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Li%Guo%NULL%0,    Jungang%Xie%NULL%0,    Guangfa%Wang%NULL%0,    Rongmeng%Jiang%NULL%0,    Zhancheng%Gao%NULL%0,    Qi%Jin%NULL%0,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,    Kun%Yang%NULL%0,    Kun%Yang%NULL%0,    Wenxia%Wang%NULL%0,    Wenxia%Wang%NULL%0,    Lingyu%Jiang%NULL%0,    Lingyu%Jiang%NULL%0,    Jianxin%Song%songsingsjx@sina.com%0,    Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,   Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%5,   Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,   Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,   Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,   Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%10,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%8,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%8,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%8,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%10,    Shangwen%Pan%NULL%8,    Xiaojing%Zou%NULL%8,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
   </si>
   <si>
     <t>CORE</t>
   </si>
   <si>
-    <t>Propuesta de adecuaci\u00f3n  de los protocolos de actuaci\u00f3n en cardiolog\u00eda intervencionista durante la COVID-19</t>
-  </si>
-  <si>
-    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%2, Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2, Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2, Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2, Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,  Yuan%Yu%NULL%0,  Jiqian%Xu%NULL%0,  Huaqing%Shu%NULL%0,  Jia'an%Xia%NULL%0,  Hong%Liu%NULL%0,  Yongran%Wu%NULL%0,  Lu%Zhang%NULL%0,  Zhui%Yu%NULL%0,  Minghao%Fang%NULL%0,  Ting%Yu%NULL%0,  Yaxin%Wang%NULL%0,  Shangwen%Pan%NULL%0,  Xiaojing%Zou%NULL%0,  Shiying%Yuan%NULL%0,  You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>Other found locations</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,   Xiaorong%Hu%NULL%1,   Wenlin%Cheng%NULL%0,   Lei%Yu%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,   Qiang%Liu%liuqiang@irm-cams.ac.cn%0,   Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
-  </si>
-  <si>
-    <t>_PMC_Springer</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>_PMC_elsevier</t>
-  </si>
-  <si>
-    <t>[Qiurong%Ruan%NULL%0,   Kun%Yang%NULL%8,   Kun%Yang%NULL%0,   Wenxia%Wang%NULL%8,   Wenxia%Wang%NULL%0,   Lingyu%Jiang%NULL%8,   Lingyu%Jiang%NULL%0,   Jianxin%Song%songsingsjx@sina.com%8,   Jianxin%Song%songsingsjx@sina.com%0]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%6,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,  Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%3,  Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,  Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,  Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,  Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
+    <t>[Jianlei%Cao%NULL%0,     Xiaorong%Hu%NULL%1,     Wenlin%Cheng%NULL%4,     Lei%Yu%NULL%4,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%4,     Qiang%Liu%liuqiang@irm-cams.ac.cn%6,     Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,     Kun%Yang%NULL%0,     Kun%Yang%NULL%0,     Wenxia%Wang%NULL%0,     Wenxia%Wang%NULL%0,     Lingyu%Jiang%NULL%0,     Lingyu%Jiang%NULL%0,     Jianxin%Song%songsingsjx@sina.com%0,     Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%6,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%6,    Subert-Salas%Lizandra%coreGivesNoEmail%6]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,    Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%3,    Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%3,    Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%3,    Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%10,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%8,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%8,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%8,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%10,     Shangwen%Pan%NULL%8,     Xiaojing%Zou%NULL%10,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Xiaorong%Hu%NULL%1,      Wenlin%Cheng%NULL%4,      Lei%Yu%NULL%4,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%4,      Qiang%Liu%liuqiang@irm-cams.ac.cn%6,      Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,      Kun%Yang%NULL%0,      Kun%Yang%NULL%0,      Wenxia%Wang%NULL%0,      Wenxia%Wang%NULL%0,      Lingyu%Jiang%NULL%0,      Lingyu%Jiang%NULL%0,      Jianxin%Song%songsingsjx@sina.com%0,      Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%6,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%6,     Subert-Salas%Lizandra%coreGivesNoEmail%6]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,     Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%3,     Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%3,     Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%3,     Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%9,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%7,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%7,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%7,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%9,      Shangwen%Pan%NULL%7,      Xiaojing%Zou%NULL%9,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Xiaorong%Hu%NULL%1,       Wenlin%Cheng%NULL%4,       Lei%Yu%NULL%4,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%4,       Qiang%Liu%liuqiang@irm-cams.ac.cn%6,       Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,       Kun%Yang%NULL%0,       Kun%Yang%NULL%0,       Wenxia%Wang%NULL%0,       Wenxia%Wang%NULL%0,       Lingyu%Jiang%NULL%0,       Lingyu%Jiang%NULL%0,       Jianxin%Song%songsingsjx@sina.com%0,       Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%6,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%6,      Subert-Salas%Lizandra%coreGivesNoEmail%6]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,      Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%3,      Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%3,      Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%3,      Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%9,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%7,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%7,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%7,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%9,       Shangwen%Pan%NULL%7,       Xiaojing%Zou%NULL%9,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Xiaorong%Hu%NULL%1,        Wenlin%Cheng%NULL%4,        Lei%Yu%NULL%4,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%4,        Qiang%Liu%liuqiang@irm-cams.ac.cn%6,        Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,        Kun%Yang%NULL%0,        Kun%Yang%NULL%0,        Wenxia%Wang%NULL%0,        Wenxia%Wang%NULL%0,        Lingyu%Jiang%NULL%0,        Lingyu%Jiang%NULL%0,        Jianxin%Song%songsingsjx@sina.com%0,        Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%6,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%6,       Subert-Salas%Lizandra%coreGivesNoEmail%6]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,       Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%3,       Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%3,       Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%3,       Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%9,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%7,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%7,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%7,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%9,        Shangwen%Pan%NULL%7,        Xiaojing%Zou%NULL%9,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy mmmm"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm d"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmmm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm\ d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -339,7 +397,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -349,44 +407,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -576,20 +633,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,15 +677,15 @@
         <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -632,27 +694,27 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>44036.0</v>
+        <v>44036</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -670,47 +732,47 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>43876.0</v>
+        <v>43876</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>43878.0</v>
+        <v>43878</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -728,105 +790,105 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>43907.0</v>
+        <v>43907</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>44006.0</v>
+        <v>44006</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -844,83 +906,84 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>43918.0</v>
+        <v>43918</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{872D0152-51A7-434C-905E-7E02335C1E2A}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="97">
   <si>
     <t>Doi</t>
   </si>
@@ -356,6 +356,48 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,         Xiaorong%Hu%NULL%0,         Wenlin%Cheng%NULL%0,         Lei%Yu%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,         Qiang%Liu%liuqiang@irm-cams.ac.cn%0,         Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,         Kun%Yang%NULL%0,         Kun%Yang%NULL%0,         Wenxia%Wang%NULL%0,         Wenxia%Wang%NULL%0,         Lingyu%Jiang%NULL%0,         Lingyu%Jiang%NULL%0,         Jianxin%Song%songsingsjx@sina.com%0,         Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,        Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,        Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,        Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,        Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,        Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%9,         Jiqian%Xu%NULL%9,         Huaqing%Shu%NULL%7,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%7,         Yongran%Wu%NULL%9,         Lu%Zhang%NULL%7,         Zhui%Yu%NULL%7,         Minghao%Fang%NULL%7,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%9,         Shangwen%Pan%NULL%7,         Xiaojing%Zou%NULL%7,         Shiying%Yuan%NULL%7,         You%Shang%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,          Xiaorong%Hu%NULL%0,          Wenlin%Cheng%NULL%0,          Lei%Yu%NULL%0,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,          Qiang%Liu%liuqiang@irm-cams.ac.cn%0,          Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,          Kun%Yang%NULL%0,          Kun%Yang%NULL%0,          Wenxia%Wang%NULL%0,          Wenxia%Wang%NULL%0,          Lingyu%Jiang%NULL%0,          Lingyu%Jiang%NULL%0,          Jianxin%Song%songsingsjx@sina.com%0,          Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,         Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,         Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,         Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,         Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,         Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%9,          Jiqian%Xu%NULL%9,          Huaqing%Shu%NULL%7,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%7,          Yongran%Wu%NULL%9,          Lu%Zhang%NULL%7,          Zhui%Yu%NULL%7,          Minghao%Fang%NULL%7,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%9,          Shangwen%Pan%NULL%7,          Xiaojing%Zou%NULL%7,          Shiying%Yuan%NULL%7,          You%Shang%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -694,7 +736,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -752,7 +794,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -810,7 +852,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -839,7 +881,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -868,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -926,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -955,7 +997,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="111">
   <si>
     <t>Doi</t>
   </si>
@@ -398,6 +398,48 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,           Xiaorong%Hu%NULL%0,           Wenlin%Cheng%NULL%0,           Lei%Yu%NULL%0,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,           Qiang%Liu%liuqiang@irm-cams.ac.cn%0,           Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%0,           Lili%Ren%NULL%0,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%0,           Li%Zhang%NULL%0,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%0,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%0,           Xuelei%Xie%NULL%0,           Wen%Yin%NULL%0,           Hui%Li%NULL%0,           Min%Liu%NULL%0,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Li%Guo%NULL%0,           Jungang%Xie%NULL%0,           Guangfa%Wang%NULL%0,           Rongmeng%Jiang%NULL%0,           Zhancheng%Gao%NULL%0,           Qi%Jin%NULL%0,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,           Kun%Yang%NULL%0,           Kun%Yang%NULL%0,           Wenxia%Wang%NULL%0,           Wenxia%Wang%NULL%0,           Lingyu%Jiang%NULL%0,           Lingyu%Jiang%NULL%0,           Jianxin%Song%songsingsjx@sina.com%0,           Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,          Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,          Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,          Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,          Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,          Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%9,           Jiqian%Xu%NULL%9,           Huaqing%Shu%NULL%7,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%7,           Yongran%Wu%NULL%9,           Lu%Zhang%NULL%7,           Zhui%Yu%NULL%7,           Minghao%Fang%NULL%7,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%9,           Shangwen%Pan%NULL%7,           Xiaojing%Zou%NULL%7,           Shiying%Yuan%NULL%7,           You%Shang%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,            Xiaorong%Hu%NULL%0,            Wenlin%Cheng%NULL%0,            Lei%Yu%NULL%0,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,            Qiang%Liu%liuqiang@irm-cams.ac.cn%0,            Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%0,            Lili%Ren%NULL%0,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%0,            Li%Zhang%NULL%0,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%0,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%0,            Xuelei%Xie%NULL%0,            Wen%Yin%NULL%0,            Hui%Li%NULL%0,            Min%Liu%NULL%0,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Li%Guo%NULL%0,            Jungang%Xie%NULL%0,            Guangfa%Wang%NULL%0,            Rongmeng%Jiang%NULL%0,            Zhancheng%Gao%NULL%0,            Qi%Jin%NULL%0,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,            Kun%Yang%NULL%0,            Kun%Yang%NULL%0,            Wenxia%Wang%NULL%0,            Wenxia%Wang%NULL%0,            Lingyu%Jiang%NULL%0,            Lingyu%Jiang%NULL%0,            Jianxin%Song%songsingsjx@sina.com%0,            Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,           Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,           Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,           Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,           Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,           Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%8,            Jiqian%Xu%NULL%8,            Huaqing%Shu%NULL%6,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%6,            Yongran%Wu%NULL%8,            Lu%Zhang%NULL%6,            Zhui%Yu%NULL%6,            Minghao%Fang%NULL%6,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%8,            Shangwen%Pan%NULL%6,            Xiaojing%Zou%NULL%6,            Shiying%Yuan%NULL%6,            You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -736,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -794,7 +836,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -852,7 +894,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -881,7 +923,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -910,7 +952,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -968,7 +1010,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -997,7 +1039,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="125">
   <si>
     <t>Doi</t>
   </si>
@@ -440,6 +440,48 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,             Xiaorong%Hu%NULL%0,             Wenlin%Cheng%NULL%0,             Lei%Yu%NULL%0,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,             Qiang%Liu%liuqiang@irm-cams.ac.cn%0,             Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%0,             Lili%Ren%NULL%0,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%0,             Li%Zhang%NULL%0,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%0,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%0,             Xuelei%Xie%NULL%0,             Wen%Yin%NULL%0,             Hui%Li%NULL%0,             Min%Liu%NULL%0,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Li%Guo%NULL%0,             Jungang%Xie%NULL%0,             Guangfa%Wang%NULL%0,             Rongmeng%Jiang%NULL%0,             Zhancheng%Gao%NULL%0,             Qi%Jin%NULL%0,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,             Kun%Yang%NULL%0,             Kun%Yang%NULL%0,             Wenxia%Wang%NULL%0,             Wenxia%Wang%NULL%0,             Lingyu%Jiang%NULL%0,             Lingyu%Jiang%NULL%0,             Jianxin%Song%songsingsjx@sina.com%0,             Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,            Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,            Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,            Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,            Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,            Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%8,             Jiqian%Xu%NULL%8,             Huaqing%Shu%NULL%6,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%6,             Yongran%Wu%NULL%8,             Lu%Zhang%NULL%6,             Zhui%Yu%NULL%6,             Minghao%Fang%NULL%6,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%8,             Shangwen%Pan%NULL%6,             Xiaojing%Zou%NULL%6,             Shiying%Yuan%NULL%6,             You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,              Xiaorong%Hu%NULL%0,              Wenlin%Cheng%NULL%0,              Lei%Yu%NULL%0,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,              Qiang%Liu%liuqiang@irm-cams.ac.cn%0,              Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%0,              Lili%Ren%NULL%0,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%0,              Li%Zhang%NULL%0,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%0,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%0,              Xuelei%Xie%NULL%0,              Wen%Yin%NULL%0,              Hui%Li%NULL%0,              Min%Liu%NULL%0,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Li%Guo%NULL%0,              Jungang%Xie%NULL%0,              Guangfa%Wang%NULL%0,              Rongmeng%Jiang%NULL%0,              Zhancheng%Gao%NULL%0,              Qi%Jin%NULL%0,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,              Kun%Yang%NULL%0,              Kun%Yang%NULL%0,              Wenxia%Wang%NULL%0,              Wenxia%Wang%NULL%0,              Lingyu%Jiang%NULL%0,              Lingyu%Jiang%NULL%0,              Jianxin%Song%songsingsjx@sina.com%0,              Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,             Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,             Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,             Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,             Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,             Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%8,              Jiqian%Xu%NULL%8,              Huaqing%Shu%NULL%6,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%6,              Yongran%Wu%NULL%8,              Lu%Zhang%NULL%6,              Zhui%Yu%NULL%6,              Minghao%Fang%NULL%6,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%8,              Shangwen%Pan%NULL%6,              Xiaojing%Zou%NULL%6,              Shiying%Yuan%NULL%6,              You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -778,7 +820,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -836,7 +878,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -894,7 +936,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -923,7 +965,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -952,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1010,7 +1052,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1039,7 +1081,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="132">
   <si>
     <t>Doi</t>
   </si>
@@ -482,6 +482,27 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,               Xiaorong%Hu%NULL%0,               Wenlin%Cheng%NULL%0,               Lei%Yu%NULL%0,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,               Qiang%Liu%liuqiang@irm-cams.ac.cn%0,               Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%0,               Lili%Ren%NULL%0,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%0,               Li%Zhang%NULL%0,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%0,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%0,               Xuelei%Xie%NULL%0,               Wen%Yin%NULL%0,               Hui%Li%NULL%0,               Min%Liu%NULL%0,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Li%Guo%NULL%0,               Jungang%Xie%NULL%0,               Guangfa%Wang%NULL%0,               Rongmeng%Jiang%NULL%0,               Zhancheng%Gao%NULL%0,               Qi%Jin%NULL%0,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,               Kun%Yang%NULL%0,               Kun%Yang%NULL%0,               Wenxia%Wang%NULL%0,               Wenxia%Wang%NULL%0,               Lingyu%Jiang%NULL%0,               Lingyu%Jiang%NULL%0,               Jianxin%Song%songsingsjx@sina.com%0,               Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,              Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,              Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,              Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,              Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,              Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%8,               Jiqian%Xu%NULL%8,               Huaqing%Shu%NULL%6,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%6,               Yongran%Wu%NULL%8,               Lu%Zhang%NULL%6,               Zhui%Yu%NULL%6,               Minghao%Fang%NULL%6,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%8,               Shangwen%Pan%NULL%6,               Xiaojing%Zou%NULL%6,               Shiying%Yuan%NULL%6,               You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -820,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -878,7 +899,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -936,7 +957,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -965,7 +986,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -994,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1052,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1081,7 +1102,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="139">
   <si>
     <t>Doi</t>
   </si>
@@ -503,6 +503,27 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                Xiaorong%Hu%NULL%0,                Wenlin%Cheng%NULL%0,                Lei%Yu%NULL%0,                Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                Qiang%Liu%liuqiang@irm-cams.ac.cn%0,                Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%0,                Lili%Ren%NULL%0,                Jianping%Zhao%NULL%0,                Yi%Hu%NULL%0,                Li%Zhang%NULL%0,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%0,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%0,                Xuelei%Xie%NULL%0,                Wen%Yin%NULL%0,                Hui%Li%NULL%0,                Min%Liu%NULL%0,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Li%Guo%NULL%0,                Jungang%Xie%NULL%0,                Guangfa%Wang%NULL%0,                Rongmeng%Jiang%NULL%0,                Zhancheng%Gao%NULL%0,                Qi%Jin%NULL%0,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                Kun%Yang%NULL%0,                Kun%Yang%NULL%0,                Wenxia%Wang%NULL%0,                Wenxia%Wang%NULL%0,                Lingyu%Jiang%NULL%0,                Lingyu%Jiang%NULL%0,                Jianxin%Song%songsingsjx@sina.com%0,                Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,               Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,               Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,               Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,               Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,               Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,               Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,               Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%8,                Jiqian%Xu%NULL%8,                Huaqing%Shu%NULL%6,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%6,                Yongran%Wu%NULL%8,                Lu%Zhang%NULL%6,                Zhui%Yu%NULL%6,                Minghao%Fang%NULL%6,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%8,                Shangwen%Pan%NULL%6,                Xiaojing%Zou%NULL%6,                Shiying%Yuan%NULL%6,                You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -841,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -899,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -957,7 +978,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -986,7 +1007,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1015,7 +1036,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1073,7 +1094,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1102,7 +1123,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="153">
   <si>
     <t>Doi</t>
   </si>
@@ -524,6 +524,48 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                 Xiaorong%Hu%NULL%0,                 Wenlin%Cheng%NULL%0,                 Lei%Yu%NULL%0,                 Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                 Qiang%Liu%liuqiang@irm-cams.ac.cn%0,                 Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Lili%Ren%NULL%0,                 Jianping%Zhao%NULL%0,                 Yi%Hu%NULL%0,                 Li%Zhang%NULL%0,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%0,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%0,                 Xuelei%Xie%NULL%0,                 Wen%Yin%NULL%0,                 Hui%Li%NULL%0,                 Min%Liu%NULL%0,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Li%Guo%NULL%0,                 Jungang%Xie%NULL%0,                 Guangfa%Wang%NULL%0,                 Rongmeng%Jiang%NULL%0,                 Zhancheng%Gao%NULL%0,                 Qi%Jin%NULL%0,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                 Kun%Yang%NULL%0,                 Kun%Yang%NULL%0,                 Wenxia%Wang%NULL%0,                 Wenxia%Wang%NULL%0,                 Lingyu%Jiang%NULL%0,                 Lingyu%Jiang%NULL%0,                 Jianxin%Song%songsingsjx@sina.com%0,                 Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%8,                 Jiqian%Xu%NULL%8,                 Huaqing%Shu%NULL%6,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%6,                 Yongran%Wu%NULL%8,                 Lu%Zhang%NULL%6,                 Zhui%Yu%NULL%6,                 Minghao%Fang%NULL%6,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%8,                 Shangwen%Pan%NULL%6,                 Xiaojing%Zou%NULL%6,                 Shiying%Yuan%NULL%6,                 You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                  Xiaorong%Hu%NULL%0,                  Wenlin%Cheng%NULL%0,                  Lei%Yu%NULL%0,                  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                  Qiang%Liu%liuqiang@irm-cams.ac.cn%0,                  Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Lili%Ren%NULL%0,                  Jianping%Zhao%NULL%0,                  Yi%Hu%NULL%0,                  Li%Zhang%NULL%0,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%0,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%0,                  Xuelei%Xie%NULL%0,                  Wen%Yin%NULL%0,                  Hui%Li%NULL%0,                  Min%Liu%NULL%0,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Li%Guo%NULL%0,                  Jungang%Xie%NULL%0,                  Guangfa%Wang%NULL%0,                  Rongmeng%Jiang%NULL%0,                  Zhancheng%Gao%NULL%0,                  Qi%Jin%NULL%0,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                  Kun%Yang%NULL%0,                  Kun%Yang%NULL%0,                  Wenxia%Wang%NULL%0,                  Wenxia%Wang%NULL%0,                  Lingyu%Jiang%NULL%0,                  Lingyu%Jiang%NULL%0,                  Jianxin%Song%songsingsjx@sina.com%0,                  Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                 Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                 Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                 Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                 Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                 Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                 Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                 Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%8,                  Jiqian%Xu%NULL%8,                  Huaqing%Shu%NULL%6,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%6,                  Yongran%Wu%NULL%8,                  Lu%Zhang%NULL%6,                  Zhui%Yu%NULL%6,                  Minghao%Fang%NULL%6,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%8,                  Shangwen%Pan%NULL%6,                  Xiaojing%Zou%NULL%6,                  Shiying%Yuan%NULL%6,                  You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -862,7 +904,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -920,7 +962,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -978,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1007,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1036,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1094,7 +1136,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1123,7 +1165,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="160">
   <si>
     <t>Doi</t>
   </si>
@@ -566,6 +566,27 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                   Xiaorong%Hu%NULL%0,                   Wenlin%Cheng%NULL%0,                   Lei%Yu%NULL%0,                   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                   Qiang%Liu%liuqiang@irm-cams.ac.cn%0,                   Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Lili%Ren%NULL%0,                   Jianping%Zhao%NULL%0,                   Yi%Hu%NULL%0,                   Li%Zhang%NULL%0,                   Guohui%Fan%NULL%0,                   Jiuyang%Xu%NULL%0,                   Xiaoying%Gu%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%0,                   Jiaan%Xia%NULL%0,                   Yuan%Wei%NULL%0,                   Wenjuan%Wu%NULL%0,                   Xuelei%Xie%NULL%0,                   Wen%Yin%NULL%0,                   Hui%Li%NULL%0,                   Min%Liu%NULL%0,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Li%Guo%NULL%0,                   Jungang%Xie%NULL%0,                   Guangfa%Wang%NULL%0,                   Rongmeng%Jiang%NULL%0,                   Zhancheng%Gao%NULL%0,                   Qi%Jin%NULL%0,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                   Kun%Yang%NULL%0,                   Kun%Yang%NULL%0,                   Wenxia%Wang%NULL%0,                   Wenxia%Wang%NULL%0,                   Lingyu%Jiang%NULL%0,                   Lingyu%Jiang%NULL%0,                   Jianxin%Song%songsingsjx@sina.com%0,                   Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                  Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                  Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                  Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                  Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                  Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%8,                   Jiqian%Xu%NULL%8,                   Huaqing%Shu%NULL%6,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%6,                   Yongran%Wu%NULL%8,                   Lu%Zhang%NULL%6,                   Zhui%Yu%NULL%6,                   Minghao%Fang%NULL%6,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%8,                   Shangwen%Pan%NULL%6,                   Xiaojing%Zou%NULL%6,                   Shiying%Yuan%NULL%6,                   You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -904,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -962,7 +983,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1020,7 +1041,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1049,7 +1070,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1078,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1136,7 +1157,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1165,7 +1186,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="170">
   <si>
     <t>Doi</t>
   </si>
@@ -587,6 +587,36 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                    Xiaorong%Hu%NULL%1,                    Wenlin%Cheng%NULL%6,                    Lei%Yu%NULL%6,                    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                    Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                    Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%14,                    Xingwang%Li%NULL%6,                    Lili%Ren%NULL%5,                    Jianping%Zhao%NULL%12,                    Yi%Hu%NULL%11,                    Li%Zhang%NULL%11,                    Guohui%Fan%NULL%14,                    Jiuyang%Xu%NULL%14,                    Xiaoying%Gu%NULL%14,                    Zhenshun%Cheng%NULL%7,                    Ting%Yu%NULL%24,                    Jiaan%Xia%NULL%6,                    Yuan%Wei%NULL%18,                    Wenjuan%Wu%NULL%5,                    Xuelei%Xie%NULL%6,                    Wen%Yin%NULL%9,                    Hui%Li%NULL%15,                    Min%Liu%NULL%5,                    Yan%Xiao%NULL%5,                    Hong%Gao%NULL%5,                    Li%Guo%NULL%6,                    Jungang%Xie%NULL%6,                    Guangfa%Wang%NULL%5,                    Rongmeng%Jiang%NULL%5,                    Zhancheng%Gao%NULL%5,                    Qi%Jin%NULL%5,                    Jianwei%Wang%wangjw28@163.com%5,                    Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                    Kun%Yang%NULL%8,                    Kun%Yang%NULL%0,                    Wenxia%Wang%NULL%8,                    Wenxia%Wang%NULL%0,                    Lingyu%Jiang%NULL%8,                    Lingyu%Jiang%NULL%0,                    Jianxin%Song%songsingsjx@sina.com%8,                    Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                   Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                   Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                   Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                   Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                   Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%8,                    Jiqian%Xu%NULL%8,                    Huaqing%Shu%NULL%6,                    Jia'an%Xia%NULL%10,                    Hong%Liu%NULL%6,                    Yongran%Wu%NULL%8,                    Lu%Zhang%NULL%6,                    Zhui%Yu%NULL%6,                    Minghao%Fang%NULL%6,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%8,                    Shangwen%Pan%NULL%6,                    Xiaojing%Zou%NULL%6,                    Shiying%Yuan%NULL%6,                    You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%8,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%13,                    Zhibo%Liu%NULL%9,                    Jie%Xiang%NULL%15,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%9,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%8,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%9,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%8,                    Yi%Zhang%NULL%9,                    Hua%Chen%NULL%9,                    Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -925,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -937,7 +967,7 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -983,7 +1013,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -995,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1041,7 +1071,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1053,7 +1083,7 @@
         <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1070,7 +1100,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1082,7 +1112,7 @@
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1099,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1111,7 +1141,7 @@
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1157,7 +1187,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1169,7 +1199,7 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1186,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1198,7 +1228,7 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="177">
   <si>
     <t>Doi</t>
   </si>
@@ -617,6 +617,27 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%8,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%13,                    Zhibo%Liu%NULL%9,                    Jie%Xiang%NULL%15,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%9,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%8,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%9,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%8,                    Yi%Zhang%NULL%9,                    Hua%Chen%NULL%9,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                     Xiaorong%Hu%NULL%1,                     Wenlin%Cheng%NULL%6,                     Lei%Yu%NULL%6,                     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                     Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                     Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%14,                     Xingwang%Li%NULL%6,                     Lili%Ren%NULL%5,                     Jianping%Zhao%NULL%12,                     Yi%Hu%NULL%11,                     Li%Zhang%NULL%11,                     Guohui%Fan%NULL%14,                     Jiuyang%Xu%NULL%14,                     Xiaoying%Gu%NULL%14,                     Zhenshun%Cheng%NULL%7,                     Ting%Yu%NULL%24,                     Jiaan%Xia%NULL%6,                     Yuan%Wei%NULL%18,                     Wenjuan%Wu%NULL%5,                     Xuelei%Xie%NULL%6,                     Wen%Yin%NULL%9,                     Hui%Li%NULL%15,                     Min%Liu%NULL%5,                     Yan%Xiao%NULL%5,                     Hong%Gao%NULL%5,                     Li%Guo%NULL%6,                     Jungang%Xie%NULL%6,                     Guangfa%Wang%NULL%5,                     Rongmeng%Jiang%NULL%5,                     Zhancheng%Gao%NULL%5,                     Qi%Jin%NULL%5,                     Jianwei%Wang%wangjw28@163.com%5,                     Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                     Kun%Yang%NULL%8,                     Kun%Yang%NULL%0,                     Wenxia%Wang%NULL%8,                     Wenxia%Wang%NULL%0,                     Lingyu%Jiang%NULL%8,                     Lingyu%Jiang%NULL%0,                     Jianxin%Song%songsingsjx@sina.com%8,                     Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                    Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                    Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                    Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                    Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                    Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%8,                     Jiqian%Xu%NULL%8,                     Huaqing%Shu%NULL%6,                     Jia'an%Xia%NULL%10,                     Hong%Liu%NULL%6,                     Yongran%Wu%NULL%8,                     Lu%Zhang%NULL%6,                     Zhui%Yu%NULL%6,                     Minghao%Fang%NULL%6,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%8,                     Shangwen%Pan%NULL%6,                     Xiaojing%Zou%NULL%6,                     Shiying%Yuan%NULL%6,                     You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%8,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%13,                     Zhibo%Liu%NULL%9,                     Jie%Xiang%NULL%15,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%9,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%8,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%9,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%8,                     Yi%Zhang%NULL%9,                     Hua%Chen%NULL%9,                     Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -955,7 +976,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1013,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1071,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1100,7 +1121,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1129,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1187,7 +1208,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1216,7 +1237,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="213">
   <si>
     <t>Doi</t>
   </si>
@@ -638,6 +638,114 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%8,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%13,                     Zhibo%Liu%NULL%9,                     Jie%Xiang%NULL%15,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%9,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%8,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%9,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%8,                     Yi%Zhang%NULL%9,                     Hua%Chen%NULL%9,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                      Xiaorong%Hu%NULL%1,                      Wenlin%Cheng%NULL%6,                      Lei%Yu%NULL%6,                      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                      Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                      Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%14,                      Xingwang%Li%NULL%6,                      Lili%Ren%NULL%5,                      Jianping%Zhao%NULL%12,                      Yi%Hu%NULL%11,                      Li%Zhang%NULL%11,                      Guohui%Fan%NULL%14,                      Jiuyang%Xu%NULL%14,                      Xiaoying%Gu%NULL%14,                      Zhenshun%Cheng%NULL%7,                      Ting%Yu%NULL%24,                      Jiaan%Xia%NULL%6,                      Yuan%Wei%NULL%18,                      Wenjuan%Wu%NULL%5,                      Xuelei%Xie%NULL%6,                      Wen%Yin%NULL%9,                      Hui%Li%NULL%15,                      Min%Liu%NULL%5,                      Yan%Xiao%NULL%5,                      Hong%Gao%NULL%5,                      Li%Guo%NULL%6,                      Jungang%Xie%NULL%6,                      Guangfa%Wang%NULL%5,                      Rongmeng%Jiang%NULL%5,                      Zhancheng%Gao%NULL%5,                      Qi%Jin%NULL%5,                      Jianwei%Wang%wangjw28@163.com%5,                      Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                      Kun%Yang%NULL%8,                      Kun%Yang%NULL%0,                      Wenxia%Wang%NULL%8,                      Wenxia%Wang%NULL%0,                      Lingyu%Jiang%NULL%8,                      Lingyu%Jiang%NULL%0,                      Jianxin%Song%songsingsjx@sina.com%8,                      Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                     Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                     Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                     Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                     Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                     Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%8,                      Jiqian%Xu%NULL%8,                      Huaqing%Shu%NULL%6,                      Jia'an%Xia%NULL%10,                      Hong%Liu%NULL%6,                      Yongran%Wu%NULL%8,                      Lu%Zhang%NULL%6,                      Zhui%Yu%NULL%6,                      Minghao%Fang%NULL%6,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%8,                      Shangwen%Pan%NULL%6,                      Xiaojing%Zou%NULL%6,                      Shiying%Yuan%NULL%6,                      You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%8,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%13,                      Zhibo%Liu%NULL%9,                      Jie%Xiang%NULL%15,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%9,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%8,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%9,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%8,                      Yi%Zhang%NULL%9,                      Hua%Chen%NULL%9,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                       Xiaorong%Hu%NULL%1,                       Wenlin%Cheng%NULL%6,                       Lei%Yu%NULL%6,                       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                       Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                       Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%14,                       Xingwang%Li%NULL%6,                       Lili%Ren%NULL%5,                       Jianping%Zhao%NULL%12,                       Yi%Hu%NULL%11,                       Li%Zhang%NULL%11,                       Guohui%Fan%NULL%14,                       Jiuyang%Xu%NULL%14,                       Xiaoying%Gu%NULL%14,                       Zhenshun%Cheng%NULL%7,                       Ting%Yu%NULL%24,                       Jiaan%Xia%NULL%6,                       Yuan%Wei%NULL%18,                       Wenjuan%Wu%NULL%5,                       Xuelei%Xie%NULL%6,                       Wen%Yin%NULL%9,                       Hui%Li%NULL%15,                       Min%Liu%NULL%5,                       Yan%Xiao%NULL%5,                       Hong%Gao%NULL%5,                       Li%Guo%NULL%6,                       Jungang%Xie%NULL%6,                       Guangfa%Wang%NULL%5,                       Rongmeng%Jiang%NULL%5,                       Zhancheng%Gao%NULL%5,                       Qi%Jin%NULL%5,                       Jianwei%Wang%wangjw28@163.com%5,                       Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                       Kun%Yang%NULL%8,                       Kun%Yang%NULL%0,                       Wenxia%Wang%NULL%8,                       Wenxia%Wang%NULL%0,                       Lingyu%Jiang%NULL%8,                       Lingyu%Jiang%NULL%0,                       Jianxin%Song%songsingsjx@sina.com%8,                       Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                      Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                      Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                      Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                      Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                      Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%8,                       Jiqian%Xu%NULL%8,                       Huaqing%Shu%NULL%6,                       Jia'an%Xia%NULL%10,                       Hong%Liu%NULL%6,                       Yongran%Wu%NULL%8,                       Lu%Zhang%NULL%6,                       Zhui%Yu%NULL%6,                       Minghao%Fang%NULL%6,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%8,                       Shangwen%Pan%NULL%6,                       Xiaojing%Zou%NULL%6,                       Shiying%Yuan%NULL%6,                       You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%8,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%13,                       Zhibo%Liu%NULL%9,                       Jie%Xiang%NULL%15,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%9,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%8,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%9,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%8,                       Yi%Zhang%NULL%9,                       Hua%Chen%NULL%9,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                        Xiaorong%Hu%NULL%1,                        Wenlin%Cheng%NULL%6,                        Lei%Yu%NULL%6,                        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                        Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                        Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%14,                        Xingwang%Li%NULL%6,                        Lili%Ren%NULL%5,                        Jianping%Zhao%NULL%12,                        Yi%Hu%NULL%11,                        Li%Zhang%NULL%11,                        Guohui%Fan%NULL%14,                        Jiuyang%Xu%NULL%14,                        Xiaoying%Gu%NULL%14,                        Zhenshun%Cheng%NULL%7,                        Ting%Yu%NULL%24,                        Jiaan%Xia%NULL%6,                        Yuan%Wei%NULL%18,                        Wenjuan%Wu%NULL%5,                        Xuelei%Xie%NULL%6,                        Wen%Yin%NULL%9,                        Hui%Li%NULL%15,                        Min%Liu%NULL%5,                        Yan%Xiao%NULL%5,                        Hong%Gao%NULL%5,                        Li%Guo%NULL%6,                        Jungang%Xie%NULL%6,                        Guangfa%Wang%NULL%5,                        Rongmeng%Jiang%NULL%5,                        Zhancheng%Gao%NULL%5,                        Qi%Jin%NULL%5,                        Jianwei%Wang%wangjw28@163.com%5,                        Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                        Kun%Yang%NULL%8,                        Kun%Yang%NULL%0,                        Wenxia%Wang%NULL%8,                        Wenxia%Wang%NULL%0,                        Lingyu%Jiang%NULL%8,                        Lingyu%Jiang%NULL%0,                        Jianxin%Song%songsingsjx@sina.com%8,                        Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                       Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                       Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                       Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                       Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                       Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%8,                        Jiqian%Xu%NULL%8,                        Huaqing%Shu%NULL%6,                        Jia'an%Xia%NULL%10,                        Hong%Liu%NULL%6,                        Yongran%Wu%NULL%8,                        Lu%Zhang%NULL%6,                        Zhui%Yu%NULL%6,                        Minghao%Fang%NULL%6,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%8,                        Shangwen%Pan%NULL%6,                        Xiaojing%Zou%NULL%6,                        Shiying%Yuan%NULL%6,                        You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%8,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%13,                        Zhibo%Liu%NULL%9,                        Jie%Xiang%NULL%15,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%9,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%8,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%9,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%8,                        Yi%Zhang%NULL%9,                        Hua%Chen%NULL%9,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                         Xiaorong%Hu%NULL%1,                         Wenlin%Cheng%NULL%6,                         Lei%Yu%NULL%6,                         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                         Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                         Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%14,                         Xingwang%Li%NULL%6,                         Lili%Ren%NULL%5,                         Jianping%Zhao%NULL%12,                         Yi%Hu%NULL%11,                         Li%Zhang%NULL%11,                         Guohui%Fan%NULL%14,                         Jiuyang%Xu%NULL%14,                         Xiaoying%Gu%NULL%14,                         Zhenshun%Cheng%NULL%7,                         Ting%Yu%NULL%24,                         Jiaan%Xia%NULL%6,                         Yuan%Wei%NULL%18,                         Wenjuan%Wu%NULL%5,                         Xuelei%Xie%NULL%6,                         Wen%Yin%NULL%9,                         Hui%Li%NULL%15,                         Min%Liu%NULL%5,                         Yan%Xiao%NULL%5,                         Hong%Gao%NULL%5,                         Li%Guo%NULL%6,                         Jungang%Xie%NULL%6,                         Guangfa%Wang%NULL%5,                         Rongmeng%Jiang%NULL%5,                         Zhancheng%Gao%NULL%5,                         Qi%Jin%NULL%5,                         Jianwei%Wang%wangjw28@163.com%5,                         Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                         Kun%Yang%NULL%8,                         Kun%Yang%NULL%0,                         Wenxia%Wang%NULL%8,                         Wenxia%Wang%NULL%0,                         Lingyu%Jiang%NULL%8,                         Lingyu%Jiang%NULL%0,                         Jianxin%Song%songsingsjx@sina.com%8,                         Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                        Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                        Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                        Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                        Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                        Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%8,                         Jiqian%Xu%NULL%8,                         Huaqing%Shu%NULL%6,                         Jia'an%Xia%NULL%10,                         Hong%Liu%NULL%6,                         Yongran%Wu%NULL%8,                         Lu%Zhang%NULL%6,                         Zhui%Yu%NULL%6,                         Minghao%Fang%NULL%6,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%8,                         Shangwen%Pan%NULL%6,                         Xiaojing%Zou%NULL%6,                         Shiying%Yuan%NULL%6,                         You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%8,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%13,                         Zhibo%Liu%NULL%9,                         Jie%Xiang%NULL%15,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%9,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%8,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%9,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%8,                         Yi%Zhang%NULL%9,                         Hua%Chen%NULL%9,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                          Xiaorong%Hu%NULL%1,                          Wenlin%Cheng%NULL%6,                          Lei%Yu%NULL%6,                          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                          Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                          Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%14,                          Xingwang%Li%NULL%6,                          Lili%Ren%NULL%5,                          Jianping%Zhao%NULL%12,                          Yi%Hu%NULL%11,                          Li%Zhang%NULL%11,                          Guohui%Fan%NULL%14,                          Jiuyang%Xu%NULL%14,                          Xiaoying%Gu%NULL%14,                          Zhenshun%Cheng%NULL%7,                          Ting%Yu%NULL%24,                          Jiaan%Xia%NULL%6,                          Yuan%Wei%NULL%18,                          Wenjuan%Wu%NULL%5,                          Xuelei%Xie%NULL%6,                          Wen%Yin%NULL%9,                          Hui%Li%NULL%15,                          Min%Liu%NULL%5,                          Yan%Xiao%NULL%5,                          Hong%Gao%NULL%5,                          Li%Guo%NULL%6,                          Jungang%Xie%NULL%6,                          Guangfa%Wang%NULL%5,                          Rongmeng%Jiang%NULL%5,                          Zhancheng%Gao%NULL%5,                          Qi%Jin%NULL%5,                          Jianwei%Wang%wangjw28@163.com%5,                          Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                          Kun%Yang%NULL%8,                          Kun%Yang%NULL%0,                          Wenxia%Wang%NULL%8,                          Wenxia%Wang%NULL%0,                          Lingyu%Jiang%NULL%8,                          Lingyu%Jiang%NULL%0,                          Jianxin%Song%songsingsjx@sina.com%8,                          Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                         Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                         Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                         Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                         Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                         Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%8,                          Jiqian%Xu%NULL%8,                          Huaqing%Shu%NULL%6,                          Jia'an%Xia%NULL%10,                          Hong%Liu%NULL%6,                          Yongran%Wu%NULL%8,                          Lu%Zhang%NULL%6,                          Zhui%Yu%NULL%6,                          Minghao%Fang%NULL%6,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%8,                          Shangwen%Pan%NULL%6,                          Xiaojing%Zou%NULL%6,                          Shiying%Yuan%NULL%6,                          You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%8,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%13,                          Zhibo%Liu%NULL%9,                          Jie%Xiang%NULL%15,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%9,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%8,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%9,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%8,                          Yi%Zhang%NULL%9,                          Hua%Chen%NULL%9,                          Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -961,6 +1069,9 @@
       <c r="I1" t="s">
         <v>44</v>
       </c>
+      <c r="J1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -976,7 +1087,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -989,6 +1100,9 @@
       </c>
       <c r="I2" t="s">
         <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1019,6 +1133,9 @@
       <c r="I3" t="s">
         <v>24</v>
       </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1034,7 +1151,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1047,6 +1164,9 @@
       </c>
       <c r="I4" t="s">
         <v>163</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1077,6 +1197,9 @@
       <c r="I5" t="s">
         <v>24</v>
       </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1092,7 +1215,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1105,6 +1228,9 @@
       </c>
       <c r="I6" t="s">
         <v>161</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1121,7 +1247,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1134,6 +1260,9 @@
       </c>
       <c r="I7" t="s">
         <v>166</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1150,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1163,6 +1292,9 @@
       </c>
       <c r="I8" t="s">
         <v>166</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1193,6 +1325,9 @@
       <c r="I9" t="s">
         <v>24</v>
       </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1208,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1221,6 +1356,9 @@
       </c>
       <c r="I10" t="s">
         <v>163</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1237,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1250,6 +1388,9 @@
       </c>
       <c r="I11" t="s">
         <v>163</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/36.xlsx
+++ b/Covid_19_Dataset_and_References/References/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="246">
   <si>
     <t>Doi</t>
   </si>
@@ -746,6 +746,141 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%8,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%13,                          Zhibo%Liu%NULL%9,                          Jie%Xiang%NULL%15,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%9,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%8,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%9,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%8,                          Yi%Zhang%NULL%9,                          Hua%Chen%NULL%9,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                           Xiaorong%Hu%NULL%1,                           Wenlin%Cheng%NULL%6,                           Lei%Yu%NULL%6,                           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                           Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                           Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Analysis of myocardial injury in patients with COVID-19 and association between concomitant cardiovascular diseases and severity of COVID-19].</t>
+  </si>
+  <si>
+    <t>Objective: To evaluate the cardiovascular damage of patients with COVID-19, and determine the correlation of serum N-terminal pro B-type natriuretic peptide (NT-proBNP) and cardiac troponin-I (cTnI) with the severity of COVID-19, and the impact of concomitant cardiovascular disease on severity of COVID-19 was also evaluated. Methods: A cross-sectional study was designed on 150 consecutive patients with COVID-19 in the fever clinic of Tongji Hospital in Wuhan from January to February in 2020, including 126 mild cases and 24 cases in critical care. Both univariate and multivariate logistic regression were used to analyze the correlation of past medical history including hypertension, diabetes and coronary heart disease (CHD) , as well as the levels of serum NT-proBNP and cTnI to the disease severity of COVID-19 patients. Results: Age, hypersensitive C-reactive protein(hs-CRP) and serum creatinine levels of the patients were higher in critical care cases than in mild cases(all P&lt;0.05). Prevalence of male, elevated NT-proBNP and cTnI, hypertension and coronary heart disease were significantly higher in critical cases care patients than in the mild cases(all P&lt;0.05). Univariate logistic regression analysis showed that age, male, elevated NT-proBNP, elevated cTnI, elevated hs-CRP, elevated serum creatinine, hypertension, and CHD were significantly correlated with critical disease status(all P&lt;0.05). Multivariate logistic regression analysis showed that elevated cTnI(OR=26.909, 95%CI 4.086-177.226, P=0.001) and CHD (OR=16.609, 95%CI 2.288-120.577, P=0.005) were the independent risk factors of critical disease status. Conclusions: COVID-19 can significantly affect the heart function and lead to myocardial injury. The past medical history of CHD and increased level of cTnI are two independent determinants of clinical disease status in patients with COVID-19.</t>
+  </si>
+  <si>
+    <t>[ C%Chen%elasticNoEmail%0,  J T% Yan%elasticNoEmail%0,  N% Zhou%elasticNoEmail%0,  J P% Zhao%elasticNoEmail%0,  D W% Wang%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%14,                           Xingwang%Li%NULL%6,                           Lili%Ren%NULL%5,                           Jianping%Zhao%NULL%12,                           Yi%Hu%NULL%11,                           Li%Zhang%NULL%11,                           Guohui%Fan%NULL%14,                           Jiuyang%Xu%NULL%14,                           Xiaoying%Gu%NULL%14,                           Zhenshun%Cheng%NULL%7,                           Ting%Yu%NULL%24,                           Jiaan%Xia%NULL%6,                           Yuan%Wei%NULL%18,                           Wenjuan%Wu%NULL%5,                           Xuelei%Xie%NULL%6,                           Wen%Yin%NULL%9,                           Hui%Li%NULL%15,                           Min%Liu%NULL%5,                           Yan%Xiao%NULL%5,                           Hong%Gao%NULL%5,                           Li%Guo%NULL%6,                           Jungang%Xie%NULL%6,                           Guangfa%Wang%NULL%5,                           Rongmeng%Jiang%NULL%5,                           Zhancheng%Gao%NULL%5,                           Qi%Jin%NULL%5,                           Jianwei%Wang%wangjw28@163.com%5,                           Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>[Clinical characteristics of 30 medical workers infected with new coronavirus pneumonia].</t>
+  </si>
+  <si>
+    <t>Objective: To investigate the clinical characteristics of medical staff with novel coronavirus pneumonia(NCP). Methods: 30 patients infected with novel coronavirus referred to jianghan university hospital between January 11, 2020 and January 3, 2020 were studied. The data reviewed included those of clinical manifestations, laboratory investigation and Radiographic features. Results: The patients consisted of 10 men and 20 women, including 22 doctors and 8 nurses,aged 21~59 years(mean 35±8 years).They were divided to 26 common type and 4 severe cases, all of whom had close(within 1m) contact with patients infected of novel coronavirus pneumonia. The average contact times were 12 (7,16) and the average cumulative contact time was 2 (1.5,2.7) h.Clinical symptoms of these patients were fever in 23 patients (76.67%) , headache in 16 petients (53.33%) , fatigue or myalgia in 21patients (70%) , nausea, vomiting or diarrhea in 9 petients (30%) , cough in 25 petients (83.33%) , and dyspnea in 14 petients (46.67%) .Routine blood test revealed WBC &lt;4.0×10(9)/L in 8 petients (26.67%) , (4-10) ×10(9)/L in 22 petients (73.33%) , and WBC&gt;4.0×10(9)/L in 4 petients (13.33%) during the disease.Lymphocyte count &lt;1.0×10(9)/L occurred in 12 petients (40%),abnormal liver function in 7 petients (23.33%) ,myocardial damage in 5 petients(16.67%), elevated D-dimer (&gt;0.5mg/l) in 5 patients (16.67%). Compared with normal patients, the average exposure times, cumulative exposure time, BMI, Fever time, white blood cell count, liver enzyme, LDH, myoenzyme and D-dimer were significantly increased in severe patients, while the lymphocyte count and albumin levels in peripheral blood were significantly decreased.Chest CT mainly showed patchy shadows and interstitial changes.According to imaging examination, 11 patients (36.67%) showed Unilateral pneumonia and 19 patients (63.33%) showed bilateral pneumonia,4 patients (13.33%) showed bilateral multiple mottling and ground-glass opacity.Compared with the patients infected in the protected period, the proportion of severe infection and bilateral pneumonia were both increased in the patients infected in unprotected period. Conclusion: Medical staffs are at higher risk of infection.Infection rates are associated with contact time, the amount of suction virus. Severe patients had BMI increased, heating time prolonged , white blood cell count, lymphocyte count, D-dimer and albumin level significantly changed and were prone to be complicated with liver damage and myocardial damage.Strict protection measures is important to prevent infection for medical workers.</t>
+  </si>
+  <si>
+    <t>[ M%Liu%elasticNoEmail%0,  P% He%elasticNoEmail%0,  H G% Liu%elasticNoEmail%0,  X J% Wang%elasticNoEmail%0,  F J% Li%elasticNoEmail%0,  S% Chen%elasticNoEmail%0,  J% Lin%elasticNoEmail%0,  P% Chen%elasticNoEmail%0,  J H% Liu%elasticNoEmail%0,  C H% Li%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                           Kun%Yang%NULL%8,                           Kun%Yang%NULL%0,                           Wenxia%Wang%NULL%8,                           Wenxia%Wang%NULL%0,                           Lingyu%Jiang%NULL%8,                           Lingyu%Jiang%NULL%0,                           Jianxin%Song%songsingsjx@sina.com%8,                           Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                          Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                          Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                          Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                          Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                          Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Clinical characteristics and outcomes of 112 cardiovascular disease patients infected by 2019-nCoV].</t>
+  </si>
+  <si>
+    <t>Objective: To explore the clinical characteristics and prognosis of the new coronavirus 2019-nCoV patients combined with cardiovascular disease (CVD). Methods: A retrospective analysis was performed on 112 COVID-19 patients with CVD admitted to the western district of Union Hospital in Wuhan, from January 20, 2020 to February 15, 2020. They were divided into critical group (ICU, n=16) and general group (n=96) according to the severity of the disease and patients were followed up to the clinical endpoint. The observation indicators included total blood count, C-reactive protein (CRP), arterial blood gas analysis, myocardial injury markers, coagulation function, liver and kidney function, electrolyte, procalcitonin (PCT), B-type natriuretic peptide (BNP), blood lipid, pulmonary CT and pathogen detection. Results: Compared with the general group, the lymphocyte count (0.74×10(9) (0.34×10(9), 0.94×10(9))/L vs. 0.99×10(9) (0.71×10(9), 1.29×10(9))/L, P=0.03) was extremely lower in the critical group, CRP (106.98 (81.57, 135.76) mg/L vs. 34.34 (9.55,76.54) mg/L, P&lt;0.001) and PCT (0.20 (0.15,0.48) μg/L vs. 0.11 (0.06,0.20)μg/L, P&lt;0.001) were significantly higher in the critical group. The BMI of the critical group was significantly higher than that of the general group (25.5 (23.0, 27.5) kg/m(2) vs. 22.0 (20.0, 24.0) kg/m(2), P=0.003). Patients were further divided into non-survivor group (17, 15.18%) group and survivor group (95, 84.82%). Among the non-survivors, there were 88.24% (15/17) patients with BMI&gt; 25 kg/m(2), which was significantly higher than that of survivors (18.95% (18/95), P&lt;0.001). Compared with the survived patients, oxygenation index (130 (102, 415) vs. 434 (410, 444), P&lt;0.001) was significantly lower and lactic acid (1.70 (1.30, 3.00) mmol/L vs. 1.20 (1.10, 1.60) mmol/L, P&lt;0.001) was significantly higher in the non-survivors. There was no significant difference in the proportion of ACEI/ARB medication between the critical group and the general group or between non-survivors and survivors (all P&gt;0.05). Conclusion: COVID-19 patients combined with CVD are associated with a higher risk of mortality. Critical patients are characterized with lower lymphocyte counts. Higher BMI are more often seen in critical patients and non-survivor. ACEI/ARB use does not affect the morbidity and mortality of COVID-19 combined with CVD. Aggravating causes of death include fulminant inflammation, lactic acid accumulation and thrombotic events.</t>
+  </si>
+  <si>
+    <t>[ Y D%Peng%elasticNoEmail%0,  K% Meng%elasticNoEmail%0,  H Q% Guan%elasticNoEmail%0,  L% Leng%elasticNoEmail%0,  R R% Zhu%elasticNoEmail%0,  B Y% Wang%elasticNoEmail%0,  M A% He%elasticNoEmail%0,  L X% Cheng%elasticNoEmail%0,  K% Huang%elasticNoEmail%0,  Q T% Zeng%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%8,                           Jiqian%Xu%NULL%8,                           Huaqing%Shu%NULL%6,                           Jia'an%Xia%NULL%10,                           Hong%Liu%NULL%6,                           Yongran%Wu%NULL%8,                           Lu%Zhang%NULL%6,                           Zhui%Yu%NULL%6,                           Minghao%Fang%NULL%6,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%8,                           Shangwen%Pan%NULL%6,                           Xiaojing%Zou%NULL%6,                           Shiying%Yuan%NULL%6,                           You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%8,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%13,                           Zhibo%Liu%NULL%9,                           Jie%Xiang%NULL%15,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%9,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%8,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%9,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%8,                           Yi%Zhang%NULL%9,                           Hua%Chen%NULL%9,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                            Xiaorong%Hu%NULL%1,                            Wenlin%Cheng%NULL%6,                            Lei%Yu%NULL%6,                            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                            Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                            Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>Objective: To evaluate the cardiovascular damage of patients with COVID-19, and determine the correlation of serum N-terminal pro B-type natriuretic peptide (NT-proBNP) and cardiac troponin-I (cTnI) with the severity of COVID-19, and the impact of concomitant cardiovascular disease on severity of COVID-19 was also evaluated.
+ Methods: A cross-sectional study was designed on 150 consecutive patients with COVID-19 in the fever clinic of Tongji Hospital in Wuhan from January to February in 2020, including 126 mild cases and 24 cases in critical care.
+ Both univariate and multivariate logistic regression were used to analyze the correlation of past medical history including hypertension, diabetes and coronary heart disease (CHD) , as well as the levels of serum NT-proBNP and cTnI to the disease severity of COVID-19 patients.
+ Results: Age, hypersensitive C-reactive protein(hs-CRP) and serum creatinine levels of the patients were higher in critical care cases than in mild cases(all P&lt;0.05).
+ Prevalence of male, elevated NT-proBNP and cTnI, hypertension and coronary heart disease were significantly higher in critical cases care patients than in the mild cases(all P&lt;0.05).
+ Univariate logistic regression analysis showed that age, male, elevated NT-proBNP, elevated cTnI, elevated hs-CRP, elevated serum creatinine, hypertension, and CHD were significantly correlated with critical disease status(all P&lt;0.05).
+ Multivariate logistic regression analysis showed that elevated cTnI(OR=26.909, 95%CI 4.086-177.226, P=0.001) and CHD (OR=16.609, 95%CI 2.288-120.577, P=0.005) were the independent risk factors of critical disease status.
+ Conclusions: COVID-19 can significantly affect the heart function and lead to myocardial injury.
+ The past medical history of CHD and increased level of cTnI are two independent determinants of clinical disease status in patients with COVID-19.</t>
+  </si>
+  <si>
+    <t>[ C%Chen%elasticNoEmail%0,   J T% Yan%elasticNoEmail%0,   N% Zhou%elasticNoEmail%0,   J P% Zhao%elasticNoEmail%0,   D W% Wang%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%14,                            Xingwang%Li%NULL%6,                            Lili%Ren%NULL%5,                            Jianping%Zhao%NULL%12,                            Yi%Hu%NULL%11,                            Li%Zhang%NULL%11,                            Guohui%Fan%NULL%14,                            Jiuyang%Xu%NULL%14,                            Xiaoying%Gu%NULL%14,                            Zhenshun%Cheng%NULL%7,                            Ting%Yu%NULL%24,                            Jiaan%Xia%NULL%6,                            Yuan%Wei%NULL%18,                            Wenjuan%Wu%NULL%5,                            Xuelei%Xie%NULL%6,                            Wen%Yin%NULL%9,                            Hui%Li%NULL%15,                            Min%Liu%NULL%5,                            Yan%Xiao%NULL%5,                            Hong%Gao%NULL%5,                            Li%Guo%NULL%6,                            Jungang%Xie%NULL%6,                            Guangfa%Wang%NULL%5,                            Rongmeng%Jiang%NULL%5,                            Zhancheng%Gao%NULL%5,                            Qi%Jin%NULL%5,                            Jianwei%Wang%wangjw28@163.com%5,                            Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To investigate the clinical characteristics of medical staff with novel coronavirus pneumonia(NCP).
+ Methods: 30 patients infected with novel coronavirus referred to jianghan university hospital between January 11, 2020 and January 3, 2020 were studied.
+ The data reviewed included those of clinical manifestations, laboratory investigation and Radiographic features.
+ Results: The patients consisted of 10 men and 20 women, including 22 doctors and 8 nurses,aged 21~59 years(mean 35±8 years).
+They were divided to 26 common type and 4 severe cases, all of whom had close(within 1m) contact with patients infected of novel coronavirus pneumonia.
+ The average contact times were 12 (7,16) and the average cumulative contact time was 2 (1.5,2.7) h.
+Clinical symptoms of these patients were fever in 23 patients (76.67%) , headache in 16 petients (53.33%) , fatigue or myalgia in 21patients (70%) , nausea, vomiting or diarrhea in 9 petients (30%) , cough in 25 petients (83.33%) , and dyspnea in 14 petients (46.67%) .
+Routine blood test revealed WBC 4.0×10(9)/L in 4 petients (13.33%) during the disease.
+Lymphocyte count 0.5mg/l) in 5 patients (16.67%).
+ Compared with normal patients, the average exposure times, cumulative exposure time, BMI, Fever time, white blood cell count, liver enzyme, LDH, myoenzyme and D-dimer were significantly increased in severe patients, while the lymphocyte count and albumin levels in peripheral blood were significantly decreased.
+Chest CT mainly showed patchy shadows and interstitial changes.
+According to imaging examination, 11 patients (36.67%) showed Unilateral pneumonia and 19 patients (63.33%) showed bilateral pneumonia,4 patients (13.33%) showed bilateral multiple mottling and ground-glass opacity.
+Compared with the patients infected in the protected period, the proportion of severe infection and bilateral pneumonia were both increased in the patients infected in unprotected period.
+ Conclusion: Medical staffs are at higher risk of infection.
+Infection rates are associated with contact time, the amount of suction virus.
+ Severe patients had BMI increased, heating time prolonged , white blood cell count, lymphocyte count, D-dimer and albumin level significantly changed and were prone to be complicated with liver damage and myocardial damage.
+Strict protection measures is important to prevent infection for medical workers.
+</t>
+  </si>
+  <si>
+    <t>[ M%Liu%elasticNoEmail%0,   P% He%elasticNoEmail%0,   H G% Liu%elasticNoEmail%0,   X J% Wang%elasticNoEmail%0,   F J% Li%elasticNoEmail%0,   S% Chen%elasticNoEmail%0,   J% Lin%elasticNoEmail%0,   P% Chen%elasticNoEmail%0,   J H% Liu%elasticNoEmail%0,   C H% Li%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                            Kun%Yang%NULL%8,                            Kun%Yang%NULL%0,                            Wenxia%Wang%NULL%8,                            Wenxia%Wang%NULL%0,                            Lingyu%Jiang%NULL%8,                            Lingyu%Jiang%NULL%0,                            Jianxin%Song%songsingsjx@sina.com%8,                            Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,                           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,                           Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                           Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%2,                           Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%2,                           Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%2,                           Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To explore the clinical characteristics and prognosis of the new coronavirus 2019-nCoV patients combined with cardiovascular disease (CVD).
+ Methods: A retrospective analysis was performed on 112 COVID-19 patients with CVD admitted to the western district of Union Hospital in Wuhan, from January 20, 2020 to February 15, 2020. They were divided into critical group (ICU, n=16) and general group (n=96) according to the severity of the disease and patients were followed up to the clinical endpoint.
+ The observation indicators included total blood count, C-reactive protein (CRP), arterial blood gas analysis, myocardial injury markers, coagulation function, liver and kidney function, electrolyte, procalcitonin (PCT), B-type natriuretic peptide (BNP), blood lipid, pulmonary CT and pathogen detection.
+ Results: Compared with the general group, the lymphocyte count (0.74×10(9) (0.34×10(9), 0.94×10(9))/L vs.
+ 0.99×10(9) (0.71×10(9), 1.29×10(9))/L, P=0.03) was extremely lower in the critical group, CRP (106.98 (81.57, 135.76) mg/L vs.
+ 34.34 (9.55,76.54) mg/L, P 25 kg/m(2), which was significantly higher than that of survivors (18.95% (18/95), P0.05).
+ Conclusion: COVID-19 patients combined with CVD are associated with a higher risk of mortality.
+ Critical patients are characterized with lower lymphocyte counts.
+ Higher BMI are more often seen in critical patients and non-survivor.
+ ACEI/ARB use does not affect the morbidity and mortality of COVID-19 combined with CVD.
+ Aggravating causes of death include fulminant inflammation, lactic acid accumulation and thrombotic events.
+</t>
+  </si>
+  <si>
+    <t>[ Y D%Peng%elasticNoEmail%0,   K% Meng%elasticNoEmail%0,   H Q% Guan%elasticNoEmail%0,   L% Leng%elasticNoEmail%0,   R R% Zhu%elasticNoEmail%0,   B Y% Wang%elasticNoEmail%0,   M A% He%elasticNoEmail%0,   L X% Cheng%elasticNoEmail%0,   K% Huang%elasticNoEmail%0,   Q T% Zeng%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%8,                            Jiqian%Xu%NULL%8,                            Huaqing%Shu%NULL%6,                            Jia'an%Xia%NULL%10,                            Hong%Liu%NULL%6,                            Yongran%Wu%NULL%8,                            Lu%Zhang%NULL%6,                            Zhui%Yu%NULL%6,                            Minghao%Fang%NULL%6,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%8,                            Shangwen%Pan%NULL%6,                            Xiaojing%Zou%NULL%6,                            Shiying%Yuan%NULL%6,                            You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%8,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%13,                            Zhibo%Liu%NULL%9,                            Jie%Xiang%NULL%15,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%9,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%8,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%9,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%8,                            Yi%Zhang%NULL%9,                            Hua%Chen%NULL%9,                            Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1222,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1113,22 +1248,22 @@
         <v>44036</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1151,7 +1286,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1177,22 +1312,22 @@
         <v>43878</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
@@ -1215,7 +1350,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1247,7 +1382,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1279,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1305,22 +1440,22 @@
         <v>44006</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -1343,7 +1478,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1375,7 +1510,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
